--- a/bang chi phi du an.xlsx
+++ b/bang chi phi du an.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tritu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\quản lý dự án cntt\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45787679-B99F-40E0-BB1F-7BEDC20D1167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -65,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,12 +108,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -110,19 +137,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -404,28 +431,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -434,7 +461,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -445,7 +472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -454,7 +481,7 @@
         <v>27000000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -466,7 +493,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -475,7 +502,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -484,7 +511,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -496,7 +523,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -506,7 +533,7 @@
         <v>105000000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
